--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_6_winter.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_6_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,138 +417,631 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>40494</v>
+        <v>32508</v>
       </c>
       <c r="B2">
-        <v>2010</v>
+        <v>1988</v>
       </c>
       <c r="C2">
-        <v>3.340769212732742</v>
+        <v>3.309964607477767</v>
       </c>
       <c r="D2">
-        <v>2011</v>
+        <v>1989</v>
       </c>
       <c r="E2">
-        <v>0.3565121095773449</v>
+        <v>3.292079387398705</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40862</v>
+        <v>32873</v>
       </c>
       <c r="B3">
-        <v>2011</v>
+        <v>1989</v>
       </c>
       <c r="C3">
-        <v>3.266613546244024</v>
+        <v>3.990753256129032</v>
       </c>
       <c r="D3">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="E3">
-        <v>2.857059467652245</v>
+        <v>3.894766455402432</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>41228</v>
+        <v>33238</v>
       </c>
       <c r="B4">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="C4">
-        <v>1.171043385317327</v>
+        <v>5.337917583757479</v>
       </c>
       <c r="D4">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="E4">
-        <v>2.293513746063258</v>
+        <v>5.271624700114952</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>41592</v>
+        <v>33603</v>
       </c>
       <c r="B5">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="C5">
-        <v>0.486130238396254</v>
+        <v>6.210850358288234</v>
       </c>
       <c r="D5">
-        <v>2014</v>
+        <v>1992</v>
       </c>
       <c r="E5">
-        <v>0.9879154814133928</v>
+        <v>4.003658823348033</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41957</v>
+        <v>33969</v>
       </c>
       <c r="B6">
-        <v>2014</v>
+        <v>1992</v>
       </c>
       <c r="C6">
-        <v>1.462112914831626</v>
+        <v>2.120896741860445</v>
       </c>
       <c r="D6">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="E6">
-        <v>0.5584147504514414</v>
+        <v>3.093518793608729</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>42321</v>
+        <v>34334</v>
       </c>
       <c r="B7">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="C7">
-        <v>1.485174342633844</v>
+        <v>-1.105151118378667</v>
       </c>
       <c r="D7">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="E7">
-        <v>1.630702503967973</v>
+        <v>1.162146262435582</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>42689</v>
+        <v>34699</v>
       </c>
       <c r="B8">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="C8">
-        <v>1.733072837491711</v>
+        <v>2.866096089773529</v>
       </c>
       <c r="D8">
-        <v>2017</v>
+        <v>1995</v>
       </c>
       <c r="E8">
-        <v>1.365567739091578</v>
+        <v>1.295274349906239</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
+        <v>35040</v>
+      </c>
+      <c r="B9">
+        <v>1995</v>
+      </c>
+      <c r="C9">
+        <v>2.255498870175066</v>
+      </c>
+      <c r="D9">
+        <v>1996</v>
+      </c>
+      <c r="E9">
+        <v>2.253863008704204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>35403</v>
+      </c>
+      <c r="B10">
+        <v>1996</v>
+      </c>
+      <c r="C10">
+        <v>1.440827265940592</v>
+      </c>
+      <c r="D10">
+        <v>1997</v>
+      </c>
+      <c r="E10">
+        <v>2.507861161314984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>35768</v>
+      </c>
+      <c r="B11">
+        <v>1997</v>
+      </c>
+      <c r="C11">
+        <v>2.388790018333853</v>
+      </c>
+      <c r="D11">
+        <v>1998</v>
+      </c>
+      <c r="E11">
+        <v>2.172278666428507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>36132</v>
+      </c>
+      <c r="B12">
+        <v>1998</v>
+      </c>
+      <c r="C12">
+        <v>2.868603576215123</v>
+      </c>
+      <c r="D12">
+        <v>1999</v>
+      </c>
+      <c r="E12">
+        <v>2.649778901248667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>36501</v>
+      </c>
+      <c r="B13">
+        <v>1999</v>
+      </c>
+      <c r="C13">
+        <v>1.199033587256038</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
+        <v>1.878782575038151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>36858</v>
+      </c>
+      <c r="B14">
+        <v>2000</v>
+      </c>
+      <c r="C14">
+        <v>3.180414548358224</v>
+      </c>
+      <c r="D14">
+        <v>2001</v>
+      </c>
+      <c r="E14">
+        <v>2.141413002119941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>37222</v>
+      </c>
+      <c r="B15">
+        <v>2001</v>
+      </c>
+      <c r="C15">
+        <v>0.8881197053071554</v>
+      </c>
+      <c r="D15">
+        <v>2002</v>
+      </c>
+      <c r="E15">
+        <v>1.417229954124744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>37581</v>
+      </c>
+      <c r="B16">
+        <v>2002</v>
+      </c>
+      <c r="C16">
+        <v>0.2503723745896691</v>
+      </c>
+      <c r="D16">
+        <v>2003</v>
+      </c>
+      <c r="E16">
+        <v>0.8114623372950991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>37938</v>
+      </c>
+      <c r="B17">
+        <v>2003</v>
+      </c>
+      <c r="C17">
+        <v>-0.160597218777192</v>
+      </c>
+      <c r="D17">
+        <v>2004</v>
+      </c>
+      <c r="E17">
+        <v>0.06866307491661949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>38302</v>
+      </c>
+      <c r="B18">
+        <v>2004</v>
+      </c>
+      <c r="C18">
+        <v>1.142421957279982</v>
+      </c>
+      <c r="D18">
+        <v>2005</v>
+      </c>
+      <c r="E18">
+        <v>0.6102547707981243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>38671</v>
+      </c>
+      <c r="B19">
+        <v>2005</v>
+      </c>
+      <c r="C19">
+        <v>1.080932672358381</v>
+      </c>
+      <c r="D19">
+        <v>2006</v>
+      </c>
+      <c r="E19">
+        <v>1.236500865721557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>39035</v>
+      </c>
+      <c r="B20">
+        <v>2006</v>
+      </c>
+      <c r="C20">
+        <v>2.573999374437519</v>
+      </c>
+      <c r="D20">
+        <v>2007</v>
+      </c>
+      <c r="E20">
+        <v>1.889446339562029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>39400</v>
+      </c>
+      <c r="B21">
+        <v>2007</v>
+      </c>
+      <c r="C21">
+        <v>2.701415685301534</v>
+      </c>
+      <c r="D21">
+        <v>2008</v>
+      </c>
+      <c r="E21">
+        <v>2.58473653892517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>39765</v>
+      </c>
+      <c r="B22">
+        <v>2008</v>
+      </c>
+      <c r="C22">
+        <v>1.582937641859083</v>
+      </c>
+      <c r="D22">
+        <v>2009</v>
+      </c>
+      <c r="E22">
+        <v>1.386725702500713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>40130</v>
+      </c>
+      <c r="B23">
+        <v>2009</v>
+      </c>
+      <c r="C23">
+        <v>-5.011264053911613</v>
+      </c>
+      <c r="D23">
+        <v>2010</v>
+      </c>
+      <c r="E23">
+        <v>-0.4521396749079032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>40494</v>
+      </c>
+      <c r="B24">
+        <v>2010</v>
+      </c>
+      <c r="C24">
+        <v>3.340769212732742</v>
+      </c>
+      <c r="D24">
+        <v>2011</v>
+      </c>
+      <c r="E24">
+        <v>0.3565121095773449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>40862</v>
+      </c>
+      <c r="B25">
+        <v>2011</v>
+      </c>
+      <c r="C25">
+        <v>3.266613546244024</v>
+      </c>
+      <c r="D25">
+        <v>2012</v>
+      </c>
+      <c r="E25">
+        <v>2.857059467652245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>41228</v>
+      </c>
+      <c r="B26">
+        <v>2012</v>
+      </c>
+      <c r="C26">
+        <v>1.171043385317327</v>
+      </c>
+      <c r="D26">
+        <v>2013</v>
+      </c>
+      <c r="E26">
+        <v>2.293513746063258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>41592</v>
+      </c>
+      <c r="B27">
+        <v>2013</v>
+      </c>
+      <c r="C27">
+        <v>0.486130238396254</v>
+      </c>
+      <c r="D27">
+        <v>2014</v>
+      </c>
+      <c r="E27">
+        <v>0.9879154814133928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>41957</v>
+      </c>
+      <c r="B28">
+        <v>2014</v>
+      </c>
+      <c r="C28">
+        <v>1.462112914831626</v>
+      </c>
+      <c r="D28">
+        <v>2015</v>
+      </c>
+      <c r="E28">
+        <v>0.5584147504514414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>42321</v>
+      </c>
+      <c r="B29">
+        <v>2015</v>
+      </c>
+      <c r="C29">
+        <v>1.485174342633844</v>
+      </c>
+      <c r="D29">
+        <v>2016</v>
+      </c>
+      <c r="E29">
+        <v>1.630702503967973</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>42689</v>
+      </c>
+      <c r="B30">
+        <v>2016</v>
+      </c>
+      <c r="C30">
+        <v>1.733072837491711</v>
+      </c>
+      <c r="D30">
+        <v>2017</v>
+      </c>
+      <c r="E30">
+        <v>1.365567739091578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
         <v>43053</v>
       </c>
-      <c r="B9">
+      <c r="B31">
         <v>2017</v>
       </c>
-      <c r="C9">
+      <c r="C31">
         <v>2.532746743612302</v>
       </c>
-      <c r="D9">
+      <c r="D31">
         <v>2018</v>
       </c>
-      <c r="E9">
+      <c r="E31">
         <v>2.340401793803593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>43418</v>
+      </c>
+      <c r="B32">
+        <v>2018</v>
+      </c>
+      <c r="C32">
+        <v>1.55060959846447</v>
+      </c>
+      <c r="D32">
+        <v>2019</v>
+      </c>
+      <c r="E32">
+        <v>1.450339910498544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>43783</v>
+      </c>
+      <c r="B33">
+        <v>2019</v>
+      </c>
+      <c r="C33">
+        <v>0.605733605626968</v>
+      </c>
+      <c r="D33">
+        <v>2020</v>
+      </c>
+      <c r="E33">
+        <v>0.9875621988306049</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-5.393157855150243</v>
+      </c>
+      <c r="D34">
+        <v>2021</v>
+      </c>
+      <c r="E34">
+        <v>0.6614402521704976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B35">
+        <v>2021</v>
+      </c>
+      <c r="C35">
+        <v>2.658879889741361</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+      <c r="E35">
+        <v>1.246339038163491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B36">
+        <v>2022</v>
+      </c>
+      <c r="C36">
+        <v>1.999826927380854</v>
+      </c>
+      <c r="D36">
+        <v>2023</v>
+      </c>
+      <c r="E36">
+        <v>1.097222285099164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B37">
+        <v>2023</v>
+      </c>
+      <c r="C37">
+        <v>-0.02454192713037262</v>
+      </c>
+      <c r="D37">
+        <v>2024</v>
+      </c>
+      <c r="E37">
+        <v>1.192480395252127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>45618</v>
+      </c>
+      <c r="B38">
+        <v>2024</v>
+      </c>
+      <c r="C38">
+        <v>-0.1570176223593789</v>
+      </c>
+      <c r="D38">
+        <v>2025</v>
+      </c>
+      <c r="E38">
+        <v>-0.04544624979142542</v>
       </c>
     </row>
   </sheetData>
